--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB3E83-7BD5-4E3D-9D4F-01CC651CE120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D783F5-8E5A-4809-BD20-32E18308CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1065,7 @@
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1101,7 +1101,7 @@
       <c r="A31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="A33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1"/>
@@ -1142,7 +1142,7 @@
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1160,7 +1160,7 @@
       <c r="A35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D783F5-8E5A-4809-BD20-32E18308CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED33FE8-CC84-4063-9541-CBD26FDA3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>DataSource</t>
   </si>
@@ -197,14 +197,32 @@
     <t>LevelActivity</t>
   </si>
   <si>
-    <t>בר אילן</t>
+    <t>Level3Map</t>
+  </si>
+  <si>
+    <t>Level4Map</t>
+  </si>
+  <si>
+    <t>Level5Map</t>
+  </si>
+  <si>
+    <t>Level6Map</t>
+  </si>
+  <si>
+    <t>Level7Map</t>
+  </si>
+  <si>
+    <t>Level8Map</t>
+  </si>
+  <si>
+    <t>Level9Map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +247,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,19 +291,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,12 +312,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +925,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -932,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -949,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,7 +993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -983,7 +1010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -998,7 +1025,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1040,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1053,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1066,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1077,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1061,231 +1088,239 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
+      <c r="D47" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED33FE8-CC84-4063-9541-CBD26FDA3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF058017-861B-46A1-ABE8-E1A405AB3A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +240,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,14 +284,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,19 +301,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,7 +644,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1086,7 @@
       <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1113,7 +1101,7 @@
       <c r="C30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1135,7 +1123,7 @@
       <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1150,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1167,7 +1155,7 @@
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1184,7 +1172,7 @@
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1"/>
@@ -1196,7 +1184,7 @@
       <c r="C36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1213,7 +1201,7 @@
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="1"/>
@@ -1240,7 +1228,7 @@
       <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1257,7 +1245,7 @@
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1271,7 +1259,7 @@
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="1"/>
@@ -1281,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="1"/>
@@ -1291,34 +1279,34 @@
         <v>2</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>59</v>
       </c>
     </row>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF058017-861B-46A1-ABE8-E1A405AB3A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D38788-9341-4048-BAA8-3232C9DF92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,16 +643,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>10</v>
       </c>
@@ -675,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,7 +780,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,7 +913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -964,7 +964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,7 +981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1108,7 +1108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
@@ -1130,7 +1130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>33</v>
@@ -1218,7 +1218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -1284,28 +1284,28 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" s="4" t="s">
         <v>59</v>
       </c>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D38788-9341-4048-BAA8-3232C9DF92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A15B29-6796-40EA-8998-C313E0BB217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>DataSource</t>
   </si>
@@ -216,13 +216,19 @@
   </si>
   <si>
     <t>Level9Map</t>
+  </si>
+  <si>
+    <t>LevelsDataSource</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +253,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,13 +297,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,10 +318,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
@@ -643,16 +662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10</v>
       </c>
@@ -675,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +715,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +736,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -738,7 +757,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,7 +778,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,7 +799,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,7 +816,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,7 +833,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,7 +848,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,7 +861,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +874,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -868,7 +887,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -879,7 +898,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,7 +915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,7 +966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -964,7 +983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1013,7 +1032,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1047,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1060,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1073,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1084,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,8 +1095,8 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1093,7 +1112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1108,7 +1127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1136,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3" t="s">
@@ -1130,8 +1149,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1145,7 +1164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -1162,7 +1181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -1177,8 +1196,8 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1191,8 +1210,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1206,7 +1225,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>33</v>
@@ -1214,12 +1233,12 @@
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="E38" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1231,12 +1250,9 @@
       <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1249,10 +1265,10 @@
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -1262,50 +1278,51 @@
       <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>1</v>
+      <c r="E41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B42" s="1"/>
       <c r="D42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E42" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="D43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="4" t="s">
         <v>59</v>
       </c>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A15B29-6796-40EA-8998-C313E0BB217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213E561-9EC5-484F-88DB-C2E00C1DA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>DataSource</t>
   </si>
@@ -218,17 +218,23 @@
     <t>Level9Map</t>
   </si>
   <si>
-    <t>LevelsDataSource</t>
-  </si>
-  <si>
     <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>TimesDataSource</t>
+  </si>
+  <si>
+    <t>תמונות והסברים מפורטים יותר</t>
+  </si>
+  <si>
+    <t>costructors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,38 +296,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
+    <cellStyle name="Warning Text" xfId="2" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,13 +659,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,7 +931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,7 +948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -966,7 +965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -983,7 +982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1031,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1046,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1059,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1072,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1083,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,54 +1094,60 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="F30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1150,14 +1155,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1165,16 +1170,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1182,28 +1187,28 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1211,119 +1216,119 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B42" s="1"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>59</v>
       </c>
     </row>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213E561-9EC5-484F-88DB-C2E00C1DA8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4BBAE-0A98-41B3-BF27-F303E6C491D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -659,18 +659,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>10</v>
       </c>
@@ -693,7 +693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +897,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -965,7 +965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
@@ -1154,7 +1154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>33</v>
@@ -1242,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -1299,35 +1299,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="D43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" s="3" t="s">
         <v>59</v>
       </c>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4BBAE-0A98-41B3-BF27-F303E6C491D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156837D-ED10-430E-9F89-61B5A87654E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1269,7 @@
       <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="D41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A156837D-ED10-430E-9F89-61B5A87654E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866F480-F82E-4FFE-828B-B1EAA09CDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,11 +274,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -300,9 +295,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,13 +305,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -659,18 +651,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="1" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10</v>
       </c>
@@ -693,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +706,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -735,7 +727,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -756,7 +748,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,7 +769,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,7 +790,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +807,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +824,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,7 +839,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,7 +852,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +865,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +878,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +889,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,7 +923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -965,7 +957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -982,7 +974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -999,7 +991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1023,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1038,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1051,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1064,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1075,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1086,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
@@ -1110,11 +1102,11 @@
       <c r="E29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1128,11 +1120,11 @@
       <c r="E30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1141,7 +1133,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
@@ -1154,7 +1146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1193,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1230,7 +1222,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>33</v>
@@ -1238,11 +1230,11 @@
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -1295,39 +1287,39 @@
       <c r="D42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="D43" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
         <v>59</v>
       </c>

--- a/ProjectBook/לוח עבודה.xlsx
+++ b/ProjectBook/לוח עבודה.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BagrutProject\ProjectBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A866F480-F82E-4FFE-828B-B1EAA09CDA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD2BCB-1702-4C6D-AD27-F5D84EA7D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5159472-F258-4B9D-BE9F-47101A6E4EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc134456537" localSheetId="0">Sheet1!$A$53</definedName>
+    <definedName name="_Toc134456539" localSheetId="0">Sheet1!$A$54</definedName>
+    <definedName name="_Toc134456540" localSheetId="0">Sheet1!$A$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="87">
   <si>
     <t>DataSource</t>
   </si>
@@ -228,6 +233,75 @@
   </si>
   <si>
     <t>costructors</t>
+  </si>
+  <si>
+    <t>הרקע לפרוייקט</t>
+  </si>
+  <si>
+    <t>מטרת המערכת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יכולות המערכת </t>
+  </si>
+  <si>
+    <t>תהליך המחקר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אתגרים מרכזיים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מדריך למשתמש </t>
+  </si>
+  <si>
+    <t>תרשים מסכים</t>
+  </si>
+  <si>
+    <t>הרשאות</t>
+  </si>
+  <si>
+    <t>דרישות מיוחדות ומגבלות</t>
+  </si>
+  <si>
+    <t>גירסת Android מינימלית</t>
+  </si>
+  <si>
+    <t>מכשירים עליהם נבדקה המערכת</t>
+  </si>
+  <si>
+    <t>תיאור תחום הידע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סוגי נתונים </t>
+  </si>
+  <si>
+    <t>ייצוג מידע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מבנה/ארכיטקטורה </t>
+  </si>
+  <si>
+    <t>מחלקות הפרוייקט וקשרים ביניהם</t>
+  </si>
+  <si>
+    <t>תרשים מחלקות</t>
+  </si>
+  <si>
+    <t>שמירת נתונים</t>
+  </si>
+  <si>
+    <t>קבצים</t>
+  </si>
+  <si>
+    <t>Shared Preferences</t>
+  </si>
+  <si>
+    <t>סכמת Database</t>
+  </si>
+  <si>
+    <t>רפלקציה אישית</t>
+  </si>
+  <si>
+    <t>ביבליוגרפיה</t>
   </si>
 </sst>
 </file>
@@ -649,15 +723,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3449C-A69B-46DE-945F-A794F37F93D1}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="22.85546875" customWidth="1"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
@@ -1324,6 +1401,85 @@
         <v>59</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
